--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H2">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I2">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J2">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N2">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O2">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P2">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q2">
-        <v>21.25944267434667</v>
+        <v>2.375224245667555</v>
       </c>
       <c r="R2">
-        <v>191.33498406912</v>
+        <v>21.377018211008</v>
       </c>
       <c r="S2">
-        <v>0.1623256686839367</v>
+        <v>0.06575131366128449</v>
       </c>
       <c r="T2">
-        <v>0.1623256686839367</v>
+        <v>0.06575131366128449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H3">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I3">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J3">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.210869</v>
       </c>
       <c r="O3">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P3">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q3">
-        <v>0.4849526412373332</v>
+        <v>0.2545820566542222</v>
       </c>
       <c r="R3">
-        <v>4.364573771136</v>
+        <v>2.291238509888</v>
       </c>
       <c r="S3">
-        <v>0.003702837509653133</v>
+        <v>0.007047378659147252</v>
       </c>
       <c r="T3">
-        <v>0.003702837509653133</v>
+        <v>0.007047378659147252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H4">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I4">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J4">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.187256</v>
       </c>
       <c r="O4">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P4">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q4">
-        <v>2.234567812096</v>
+        <v>1.173064792234667</v>
       </c>
       <c r="R4">
-        <v>20.111110308864</v>
+        <v>10.557583130112</v>
       </c>
       <c r="S4">
-        <v>0.01706195782619365</v>
+        <v>0.03247295544406738</v>
       </c>
       <c r="T4">
-        <v>0.01706195782619365</v>
+        <v>0.03247295544406739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.346101</v>
       </c>
       <c r="I5">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J5">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N5">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O5">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P5">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q5">
-        <v>36.03396833872</v>
+        <v>7.668958253231001</v>
       </c>
       <c r="R5">
-        <v>324.30571504848</v>
+        <v>69.020624279079</v>
       </c>
       <c r="S5">
-        <v>0.275135999354145</v>
+        <v>0.2122932520932441</v>
       </c>
       <c r="T5">
-        <v>0.275135999354145</v>
+        <v>0.2122932520932441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.346101</v>
       </c>
       <c r="I6">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J6">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.210869</v>
       </c>
       <c r="O6">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P6">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q6">
         <v>0.8219767746409998</v>
@@ -818,10 +818,10 @@
         <v>7.397790971768999</v>
       </c>
       <c r="S6">
-        <v>0.006276172505089729</v>
+        <v>0.02275408430605748</v>
       </c>
       <c r="T6">
-        <v>0.00627617250508973</v>
+        <v>0.02275408430605748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.346101</v>
       </c>
       <c r="I7">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J7">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>10.187256</v>
       </c>
       <c r="O7">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P7">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q7">
-        <v>3.787509720984</v>
+        <v>3.787509720984001</v>
       </c>
       <c r="R7">
         <v>34.087587488856</v>
       </c>
       <c r="S7">
-        <v>0.02891938690601315</v>
+        <v>0.1048464119182955</v>
       </c>
       <c r="T7">
-        <v>0.02891938690601315</v>
+        <v>0.1048464119182955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.462097</v>
       </c>
       <c r="I8">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J8">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N8">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O8">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P8">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q8">
-        <v>58.82100700517334</v>
+        <v>12.51862805937367</v>
       </c>
       <c r="R8">
-        <v>529.38906304656</v>
+        <v>112.667652534363</v>
       </c>
       <c r="S8">
-        <v>0.4491255693310743</v>
+        <v>0.3465425387275377</v>
       </c>
       <c r="T8">
-        <v>0.4491255693310743</v>
+        <v>0.3465425387275377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.462097</v>
       </c>
       <c r="I9">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J9">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.210869</v>
       </c>
       <c r="O9">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P9">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q9">
         <v>1.341775659143666</v>
@@ -1004,10 +1004,10 @@
         <v>12.075980932293</v>
       </c>
       <c r="S9">
-        <v>0.01024507718432082</v>
+        <v>0.03714323495491129</v>
       </c>
       <c r="T9">
-        <v>0.01024507718432082</v>
+        <v>0.03714323495491129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.462097</v>
       </c>
       <c r="I10">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J10">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>10.187256</v>
       </c>
       <c r="O10">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P10">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q10">
         <v>6.182642270648</v>
       </c>
       <c r="R10">
-        <v>55.643780435832</v>
+        <v>55.64378043583201</v>
       </c>
       <c r="S10">
-        <v>0.04720733069957354</v>
+        <v>0.1711488302354549</v>
       </c>
       <c r="T10">
-        <v>0.04720733069957353</v>
+        <v>0.1711488302354549</v>
       </c>
     </row>
   </sheetData>
